--- a/microservice-production/microservice-data-analysis-api/src/main/resources/excelTemplate/moldFlow.xlsx
+++ b/microservice-production/microservice-data-analysis-api/src/main/resources/excelTemplate/moldFlow.xlsx
@@ -35,6 +35,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>模流外径收缩率(</t>
     </r>
     <r>
@@ -116,7 +123,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,21 +141,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -673,10 +665,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -685,137 +677,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -831,29 +823,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1206,7 +1183,7 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="J2" sqref="$A2:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1242,7 +1219,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
-      <c r="S1" s="10"/>
+      <c r="S1" s="7"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="21" customHeight="1" spans="1:19">
       <c r="A2" s="4" t="s">
@@ -1260,7 +1237,7 @@
       <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -1272,61 +1249,61 @@
       <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="8" t="s">
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="11" t="s">
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="39" customHeight="1" spans="1:19">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="6" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="R3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="4" t="s">
         <v>22</v>
       </c>
     </row>

--- a/microservice-production/microservice-data-analysis-api/src/main/resources/excelTemplate/moldFlow.xlsx
+++ b/microservice-production/microservice-data-analysis-api/src/main/resources/excelTemplate/moldFlow.xlsx
@@ -7,21 +7,28 @@
     <workbookView windowWidth="20925" windowHeight="9840" tabRatio="409"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="数据搜集模板" sheetId="1" r:id="rId1"/>
+    <sheet name="数据格式备注" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>项目量产模流数据表</t>
   </si>
   <si>
+    <t>事业部</t>
+  </si>
+  <si>
     <t>类别</t>
   </si>
   <si>
+    <t>镜片数</t>
+  </si>
+  <si>
     <t>项目</t>
   </si>
   <si>
@@ -31,7 +38,10 @@
     <t>材料</t>
   </si>
   <si>
-    <t>模具类型</t>
+    <t>模具类型（名称由模具定义）</t>
+  </si>
+  <si>
+    <t>流道类型</t>
   </si>
   <si>
     <r>
@@ -83,25 +93,196 @@
     <t>竞品信息</t>
   </si>
   <si>
-    <t>整体(%)</t>
-  </si>
-  <si>
-    <t>R1有效径(%)</t>
-  </si>
-  <si>
-    <t>R2有效径(%)</t>
-  </si>
-  <si>
-    <t>R1坎合(%)</t>
-  </si>
-  <si>
-    <t>R2坎合(%)</t>
-  </si>
-  <si>
-    <t>R1(nm)</t>
-  </si>
-  <si>
-    <t>R2(nm)</t>
+    <r>
+      <t>整体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>平均体积收缩率差值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R1有效径</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>四点极差</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R2有效径</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>四点极差</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R1坎合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>四点极差</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R2坎合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>四点极差</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>模拟面型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R1(nm)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>模拟面型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R2(nm)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>模拟面型图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>模拟面型图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R2</t>
+    </r>
   </si>
   <si>
     <t>竞品名称</t>
@@ -111,6 +292,84 @@
   </si>
   <si>
     <t>竞品组立图</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>手机</t>
+  </si>
+  <si>
+    <t>非手机-VR</t>
+  </si>
+  <si>
+    <t>非手机-车载</t>
+  </si>
+  <si>
+    <t>非手机-无人机</t>
+  </si>
+  <si>
+    <t>等等</t>
+  </si>
+  <si>
+    <t>主摄</t>
+  </si>
+  <si>
+    <t>广角</t>
+  </si>
+  <si>
+    <t>长焦</t>
+  </si>
+  <si>
+    <t>鱼眼</t>
+  </si>
+  <si>
+    <t>APEL5014CL</t>
+  </si>
+  <si>
+    <t>EP9000</t>
+  </si>
+  <si>
+    <t>模具类型</t>
+  </si>
+  <si>
+    <t>双分</t>
+  </si>
+  <si>
+    <t>整体</t>
+  </si>
+  <si>
+    <t>分割位置</t>
+  </si>
+  <si>
+    <t>承靠到终端</t>
+  </si>
+  <si>
+    <t>承靠到外径</t>
+  </si>
+  <si>
+    <t>浇口类型</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>开模方式</t>
+  </si>
+  <si>
+    <t>正向开模</t>
+  </si>
+  <si>
+    <t>反向开模</t>
   </si>
 </sst>
 </file>
@@ -123,7 +382,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,8 +399,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -499,12 +772,53 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -523,21 +837,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -665,10 +964,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -677,137 +976,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -817,20 +1116,50 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1180,139 +1509,165 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="$A2:$XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
-    <col min="7" max="7" width="15.375" customWidth="1"/>
-    <col min="8" max="8" width="14.625" customWidth="1"/>
-    <col min="9" max="9" width="17.625" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="11.125" customWidth="1"/>
-    <col min="12" max="12" width="11.25" customWidth="1"/>
-    <col min="19" max="19" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="14.75" customWidth="1"/>
+    <col min="10" max="10" width="15.375" customWidth="1"/>
+    <col min="11" max="11" width="14.625" customWidth="1"/>
+    <col min="12" max="12" width="17.625" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="13.375" customWidth="1"/>
+    <col min="15" max="15" width="11.25" customWidth="1"/>
+    <col min="22" max="22" width="12.125" customWidth="1"/>
+    <col min="24" max="24" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.1" customHeight="1" spans="1:19">
+    <row r="1" ht="29.1" customHeight="1" spans="1:24">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="7"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="21" customHeight="1" spans="1:19">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="21" customHeight="1" spans="1:24">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6" t="s">
+      <c r="K2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6" t="s">
+      <c r="L2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="39" customHeight="1" spans="1:19">
-      <c r="A3" s="4"/>
+      <c r="M2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="48" customHeight="1" spans="1:24">
+      <c r="A3" s="3"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="5" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="16" t="s">
         <v>22</v>
       </c>
+      <c r="T3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="J2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:S2"/>
+  <mergeCells count="16">
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="V2:X2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -1322,14 +1677,201 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
-      <formula1>"双分,整体"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C4:D32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="4" spans="3:4">
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4">
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4">
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4">
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4">
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4">
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/microservice-production/microservice-data-analysis-api/src/main/resources/excelTemplate/moldFlow.xlsx
+++ b/microservice-production/microservice-data-analysis-api/src/main/resources/excelTemplate/moldFlow.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20925" windowHeight="9840" tabRatio="409"/>
+    <workbookView windowWidth="20925" windowHeight="9840" tabRatio="409" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="数据搜集模板" sheetId="1" r:id="rId1"/>
-    <sheet name="数据格式备注" sheetId="2" r:id="rId2"/>
+    <sheet name="数据格式说明" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="76">
   <si>
     <t>项目量产模流数据表</t>
   </si>
@@ -38,7 +38,7 @@
     <t>材料</t>
   </si>
   <si>
-    <t>模具类型（名称由模具定义）</t>
+    <t>模具类型</t>
   </si>
   <si>
     <t>流道类型</t>
@@ -47,7 +47,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -57,7 +56,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -66,7 +64,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -93,283 +90,317 @@
     <t>竞品信息</t>
   </si>
   <si>
-    <r>
-      <t>整体</t>
-    </r>
+    <t>整体平均体积收缩率差值(%)</t>
+  </si>
+  <si>
+    <t>R1有效径四点极差(%)</t>
+  </si>
+  <si>
+    <t>R2有效径四点极差(%)</t>
+  </si>
+  <si>
+    <t>R1坎合四点极差(%)</t>
+  </si>
+  <si>
+    <t>R2坎合四点极差(%)</t>
+  </si>
+  <si>
+    <t>模拟面型R1(nm)</t>
+  </si>
+  <si>
+    <t>模拟面型R2(nm)</t>
+  </si>
+  <si>
+    <t>模拟面型图R1</t>
+  </si>
+  <si>
+    <t>模拟面型图R2</t>
+  </si>
+  <si>
+    <t>预补正面型R1</t>
+  </si>
+  <si>
+    <t>预补正面型R2</t>
+  </si>
+  <si>
+    <t>竞品名称</t>
+  </si>
+  <si>
+    <t>竞品链接</t>
+  </si>
+  <si>
+    <t>竞品组立图</t>
+  </si>
+  <si>
+    <t>模拟面型PV值-R1(nm)</t>
+  </si>
+  <si>
+    <t>模拟面型PV值-R2(nm)</t>
+  </si>
+  <si>
+    <t>手机</t>
+  </si>
+  <si>
+    <t>后置主摄</t>
+  </si>
+  <si>
+    <t>3P</t>
+  </si>
+  <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>平均体积收缩率差值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(%)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>R1有效径</t>
+      <t>P</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>四点极差</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(%)</t>
+      <t>1</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>R2有效径</t>
-    </r>
+    <t>EP3500</t>
+  </si>
+  <si>
+    <t>与模具上传数据中模具类型一致</t>
+  </si>
+  <si>
+    <t>冷流道</t>
+  </si>
+  <si>
+    <t>按照项目实际数据填写，预补正面型图中要包含亚斯和不对称的数据</t>
+  </si>
+  <si>
+    <t>按照竞品厂家—厂内项目—竞品厂内名称的格式写，例如Largan-1086085竞品-L60196，每个镜片都写竞品名称和竞品链接</t>
+  </si>
+  <si>
+    <t>竞品组立图统一放置在第一片P镜片处，其余镜片不需上传组立图</t>
+  </si>
+  <si>
+    <t>非手机-VR</t>
+  </si>
+  <si>
+    <t>后置广角</t>
+  </si>
+  <si>
+    <t>4P</t>
+  </si>
+  <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>四点极差</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(%)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>R1坎合</t>
+      <t>P</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>四点极差</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(%)</t>
+      <t>2</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>R2坎合</t>
-    </r>
+    <t>……</t>
+  </si>
+  <si>
+    <t>热流道</t>
+  </si>
+  <si>
+    <t>非手机-车载</t>
+  </si>
+  <si>
+    <t>后置长焦</t>
+  </si>
+  <si>
+    <t>5P</t>
+  </si>
+  <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>四点极差</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(%)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>模拟面型</t>
+      <t>P</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>R1(nm)</t>
+      <t>3</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>模拟面型</t>
-    </r>
+    <t>EP10000</t>
+  </si>
+  <si>
+    <t>非手机-无人机</t>
+  </si>
+  <si>
+    <t>后置景深</t>
+  </si>
+  <si>
+    <t>6P</t>
+  </si>
+  <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>R2(nm)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>模拟面型图</t>
+      <t>P</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>R1</t>
+      <t>4</t>
     </r>
+  </si>
+  <si>
+    <t>SP5590</t>
+  </si>
+  <si>
+    <t>非手机-运动相机</t>
+  </si>
+  <si>
+    <t>前置小头</t>
+  </si>
+  <si>
+    <t>7P</t>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>模拟面型图</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>R2</t>
+      <t>P</t>
     </r>
-  </si>
-  <si>
-    <t>竞品名称</t>
-  </si>
-  <si>
-    <t>竞品链接</t>
-  </si>
-  <si>
-    <t>竞品组立图</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>分类</t>
-  </si>
-  <si>
-    <t>手机</t>
-  </si>
-  <si>
-    <t>非手机-VR</t>
-  </si>
-  <si>
-    <t>非手机-车载</t>
-  </si>
-  <si>
-    <t>非手机-无人机</t>
-  </si>
-  <si>
-    <t>等等</t>
-  </si>
-  <si>
-    <t>主摄</t>
-  </si>
-  <si>
-    <t>广角</t>
-  </si>
-  <si>
-    <t>长焦</t>
-  </si>
-  <si>
-    <t>鱼眼</t>
-  </si>
-  <si>
-    <t>APEL5014CL</t>
-  </si>
-  <si>
-    <t>EP9000</t>
-  </si>
-  <si>
-    <t>模具类型</t>
-  </si>
-  <si>
-    <t>双分</t>
-  </si>
-  <si>
-    <t>整体</t>
-  </si>
-  <si>
-    <t>分割位置</t>
-  </si>
-  <si>
-    <t>承靠到终端</t>
-  </si>
-  <si>
-    <t>承靠到外径</t>
-  </si>
-  <si>
-    <t>浇口类型</t>
-  </si>
-  <si>
-    <t>TO</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>开模方式</t>
-  </si>
-  <si>
-    <t>正向开模</t>
-  </si>
-  <si>
-    <t>反向开模</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <t>APL5014(04)</t>
+  </si>
+  <si>
+    <t>CSP镜头</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G5P</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <t>K26R</t>
+  </si>
+  <si>
+    <t>前置主摄</t>
+  </si>
+  <si>
+    <t>1G6P</t>
+  </si>
+  <si>
+    <t>T62R</t>
+  </si>
+  <si>
+    <t>屏下指纹</t>
+  </si>
+  <si>
+    <t>2G4P</t>
+  </si>
+  <si>
+    <t>APP600</t>
+  </si>
+  <si>
+    <t>红外镜头</t>
+  </si>
+  <si>
+    <t>微距景深</t>
+  </si>
+  <si>
+    <t>景深镜头</t>
   </si>
 </sst>
 </file>
@@ -382,7 +413,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,28 +424,25 @@
     <font>
       <b/>
       <sz val="18"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -422,6 +450,12 @@
     <font>
       <b/>
       <sz val="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -573,12 +607,11 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -587,6 +620,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -772,7 +811,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -819,6 +858,15 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -964,10 +1012,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -976,36 +1024,33 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1015,151 +1060,166 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1509,14 +1569,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
+    <col min="7" max="7" width="10.125" customWidth="1"/>
     <col min="9" max="9" width="14.75" customWidth="1"/>
     <col min="10" max="10" width="15.375" customWidth="1"/>
     <col min="11" max="11" width="14.625" customWidth="1"/>
@@ -1524,150 +1585,160 @@
     <col min="13" max="13" width="14" customWidth="1"/>
     <col min="14" max="14" width="13.375" customWidth="1"/>
     <col min="15" max="15" width="11.25" customWidth="1"/>
-    <col min="22" max="22" width="12.125" customWidth="1"/>
-    <col min="24" max="24" width="11.25" customWidth="1"/>
+    <col min="24" max="24" width="12.125" customWidth="1"/>
+    <col min="26" max="26" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.1" customHeight="1" spans="1:24">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="29.1" customHeight="1" spans="1:26">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="21" customHeight="1" spans="1:24">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="21" customFormat="1" ht="21" customHeight="1" spans="1:26">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="13" t="s">
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="12" t="s">
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="48" customHeight="1" spans="1:24">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11" t="s">
+    <row r="3" s="21" customFormat="1" ht="48" customHeight="1" spans="1:26">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="R3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="S3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="T3" s="17" t="s">
+      <c r="T3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="V3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="X3" s="3" t="s">
         <v>27</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="A1:Z1"/>
     <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="R2:W2"/>
+    <mergeCell ref="X2:Z2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -1690,187 +1761,505 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C4:D32"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D32"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="24" max="24" width="12.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="3:4">
+    <row r="1" ht="22.5" spans="1:26">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" ht="18.75" spans="1:26">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+    </row>
+    <row r="3" ht="57" spans="1:26">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V3" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="W3" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:26">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
       <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="5" spans="3:4">
+    <row r="5" spans="1:26">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
       <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
     </row>
-    <row r="6" spans="4:4">
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
+    <row r="6" spans="1:26">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
     </row>
-    <row r="7" spans="4:4">
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
+    <row r="7" spans="1:26">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
     </row>
-    <row r="8" spans="4:4">
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
+    <row r="8" spans="1:26">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
     </row>
-    <row r="9" spans="4:4">
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
+    <row r="9" spans="1:26">
+      <c r="A9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
     </row>
-    <row r="10" spans="3:4">
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>35</v>
-      </c>
+    <row r="10" spans="2:26">
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
     </row>
-    <row r="11" spans="4:4">
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
+    <row r="11" spans="2:26">
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
     </row>
-    <row r="12" spans="4:4">
-      <c r="D12" t="s">
-        <v>37</v>
-      </c>
+    <row r="12" spans="2:7">
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="4:4">
-      <c r="D13" t="s">
-        <v>38</v>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="14" spans="4:4">
-      <c r="D14" t="s">
-        <v>34</v>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="15" spans="3:4">
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="4:4">
-      <c r="D16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4">
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4">
-      <c r="D20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4">
-      <c r="D21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4">
-      <c r="C22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="4:4">
-      <c r="D23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
-      <c r="C24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="4:4">
-      <c r="D25" t="s">
+    <row r="15" spans="2:2">
+      <c r="B15" s="8" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4">
-      <c r="C26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="4:4">
-      <c r="D27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="4:4">
-      <c r="D28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="4:4">
-      <c r="D29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4">
-      <c r="C30" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="4:4">
-      <c r="D31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="4:4">
-      <c r="D32" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A1:Z1"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:W2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G12"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="Z4:Z11"/>
+    <mergeCell ref="I4:W11"/>
+    <mergeCell ref="X4:Y11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
